--- a/documents/db.xlsx
+++ b/documents/db.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>POSTS</t>
   </si>
   <si>
-    <t>USERSHARES</t>
+    <t>POSTSHARES</t>
   </si>
   <si>
     <t>USERS</t>
@@ -118,9 +118,6 @@
     <t>POSTTAGS</t>
   </si>
   <si>
-    <t>POSTCOMMENTS</t>
-  </si>
-  <si>
     <t>COMMENTS</t>
   </si>
   <si>
@@ -134,6 +131,26 @@
   </si>
   <si>
     <t>CommentIdParent</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>return 0/1</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị toàn bộ danh sách bài viết của all user
+Hiển thị danh sách bài viết của 1 user trong trang cá nhân
+Cho phép user tạo bài viết mới
+Cho phép user chỉnh sửa bài viết (nội dung, chế độ)
+Cho phép user xóa bài viết
+</t>
   </si>
 </sst>
 </file>
@@ -146,10 +163,17 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -180,8 +204,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +238,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,39 +277,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,7 +323,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,35 +338,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,192 +376,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -555,6 +610,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -588,9 +656,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -598,6 +664,26 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -626,21 +712,45 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,37 +779,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,26 +818,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,193 +851,232 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1272,10 +1397,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1301,10 +1426,10 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1318,328 +1443,362 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="5" t="s">
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="17" t="s">
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" spans="1:7">
+      <c r="A31" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" ht="17.25" spans="1:4">
+      <c r="A32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" ht="94" customHeight="1" spans="1:4">
+      <c r="A33" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/documents/db.xlsx
+++ b/documents/db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>POSTS</t>
   </si>
@@ -109,6 +109,9 @@
     <t>Country</t>
   </si>
   <si>
+    <t>ImageBase</t>
+  </si>
+  <si>
     <t>IMAGES</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>CommentId</t>
-  </si>
-  <si>
-    <t>ImageBase</t>
   </si>
   <si>
     <t>CommentIdParent</t>
@@ -159,9 +159,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -238,15 +238,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +268,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -300,7 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,8 +329,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,7 +346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,14 +354,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,13 +388,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,31 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,127 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,11 +731,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,15 +770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -788,17 +794,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,11 +822,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,152 +833,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,12 +1037,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1399,8 +1393,8 @@
   <sheetPr/>
   <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1605,10 +1599,10 @@
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="16"/>
@@ -1623,10 +1617,10 @@
       <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1637,26 +1631,31 @@
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="17" t="s">
+    <row r="14" spans="3:3">
+      <c r="C14" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1675,7 +1674,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>9</v>
@@ -1684,15 +1683,15 @@
         <v>9</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>10</v>
@@ -1711,7 +1710,7 @@
       <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1733,7 +1732,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="15"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1741,7 +1740,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="15"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1767,31 +1766,31 @@
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:7">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" ht="17.25" spans="1:4">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" ht="94" customHeight="1" spans="1:4">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documents/db.xlsx
+++ b/documents/db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
   <si>
     <t>POSTS</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>CreateAt</t>
+  </si>
+  <si>
+    <t>FullName</t>
   </si>
   <si>
     <t>LastName</t>
@@ -158,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -238,14 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,47 +263,54 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,39 +332,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,187 +391,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,6 +730,45 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,7 +792,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,30 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -804,78 +831,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,7 +887,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -893,88 +896,88 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1394,7 +1397,7 @@
   <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1567,40 +1570,40 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="13" t="s">
-        <v>15</v>
+      <c r="A8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
+      <c r="A9" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>25</v>
@@ -1611,27 +1614,30 @@
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="17" t="s">
-        <v>27</v>
+      <c r="A10" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -1641,21 +1647,21 @@
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1674,7 +1680,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>9</v>
@@ -1683,15 +1689,15 @@
         <v>9</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>10</v>
@@ -1716,13 +1722,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>14</v>
@@ -1741,7 +1747,7 @@
       <c r="B24" s="15"/>
       <c r="C24" s="7"/>
       <c r="D24" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1754,20 +1760,20 @@
     </row>
     <row r="26" spans="4:4">
       <c r="D26" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:7">
       <c r="A31" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="32" ht="17.25" spans="1:4">
       <c r="A32" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -1786,7 +1792,7 @@
     </row>
     <row r="33" ht="94" customHeight="1" spans="1:4">
       <c r="A33" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>

--- a/documents/db.xlsx
+++ b/documents/db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>POSTS</t>
   </si>
@@ -106,15 +106,24 @@
     <t>DoB</t>
   </si>
   <si>
+    <t>HeartCount</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
+    <t>CommentCount</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
     <t>ImageBase</t>
   </si>
   <si>
+    <t>BackgroundBase</t>
+  </si>
+  <si>
     <t>IMAGES</t>
   </si>
   <si>
@@ -127,10 +136,16 @@
     <t>COMMENTS</t>
   </si>
   <si>
+    <t>POSTHEARTS</t>
+  </si>
+  <si>
     <t>ImageId</t>
   </si>
   <si>
     <t>CommentId</t>
+  </si>
+  <si>
+    <t>AutoPostId</t>
   </si>
   <si>
     <t>CommentIdParent</t>
@@ -161,8 +176,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -227,21 +242,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,6 +278,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -272,99 +357,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,61 +406,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,121 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,6 +654,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -647,6 +673,48 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -659,50 +727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -725,11 +749,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,6 +769,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,69 +827,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -831,12 +837,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,134 +869,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,31 +1015,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1036,19 +1057,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,19 +1090,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1397,7 +1427,7 @@
   <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1446,357 +1476,387 @@
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C12" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C13" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="17" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="6" t="s">
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="17"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:7">
-      <c r="A31" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="A31" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" ht="17.25" spans="1:4">
-      <c r="A32" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
+      <c r="A32" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" ht="94" customHeight="1" spans="1:4">
-      <c r="A33" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
+      <c r="A33" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
